--- a/tldemo/doc/1导入模板.xlsx
+++ b/tldemo/doc/1导入模板.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>单据日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,13 +67,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>黄志明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BASA</t>
-  </si>
-  <si>
     <t>洞石</t>
   </si>
   <si>
@@ -89,14 +82,38 @@
   </si>
   <si>
     <t>洞土</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DL130415-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DL130415-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洞水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洞冰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莲坂供应商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄臣晓</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,7 +186,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -243,7 +260,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -278,7 +294,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -454,17 +469,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="19.75" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.625" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
     <col min="6" max="6" width="15.25" customWidth="1"/>
@@ -478,7 +494,7 @@
     <col min="15" max="15" width="7.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" s="2" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -525,27 +541,27 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15">
       <c r="A2" s="4">
         <v>42964</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D2">
         <v>6</v>
       </c>
       <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H2" s="3">
         <v>180</v>
@@ -572,27 +588,27 @@
         <v>4.1399999999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15">
       <c r="A3" s="4">
         <v>42964</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D3">
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H3" s="3">
         <v>180</v>
@@ -616,6 +632,100 @@
         <v>2</v>
       </c>
       <c r="O3" s="3">
+        <v>4.1399999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="4">
+        <v>42965</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="3">
+        <v>180</v>
+      </c>
+      <c r="I4" s="3">
+        <v>100</v>
+      </c>
+      <c r="J4" s="3">
+        <v>115</v>
+      </c>
+      <c r="K4" s="3">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="L4" s="3">
+        <v>4.4504999999999999</v>
+      </c>
+      <c r="M4" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="N4" s="3">
+        <v>2</v>
+      </c>
+      <c r="O4" s="3">
+        <v>4.1399999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="4">
+        <v>42965</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="3">
+        <v>180</v>
+      </c>
+      <c r="I5" s="3">
+        <v>100</v>
+      </c>
+      <c r="J5" s="3">
+        <v>115</v>
+      </c>
+      <c r="K5" s="3">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="L5" s="3">
+        <v>4.4504999999999999</v>
+      </c>
+      <c r="M5" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="N5" s="3">
+        <v>2</v>
+      </c>
+      <c r="O5" s="3">
         <v>4.1399999999999997</v>
       </c>
     </row>
